--- a/CRUDCreateCode/data/input/models/EventTracking.xlsx
+++ b/CRUDCreateCode/data/input/models/EventTracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03250E21-FBF4-B943-86EB-A3293AD4836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF41F1-221B-3645-BDFE-844591EB62BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="6" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="forms" sheetId="6" r:id="rId11"/>
     <sheet name="html" sheetId="5" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$77</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="152">
   <si>
     <t>Variable</t>
   </si>
@@ -82,24 +85,6 @@
     <t>ForeignKey</t>
   </si>
   <si>
-    <t>basic</t>
-  </si>
-  <si>
-    <t>"html"</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>retrieve</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>functions</t>
   </si>
   <si>
@@ -242,9 +227,6 @@
   </si>
   <si>
     <t>return</t>
-  </si>
-  <si>
-    <t>UserProfile</t>
   </si>
   <si>
     <t>models.OneToOneField</t>
@@ -417,9 +399,6 @@
     <t>models.CharField(max_length=100)#e.g.,'add_to_cart','remove_from_cart'aJSONobject</t>
   </si>
   <si>
-    <t>models.IntegerField()details</t>
-  </si>
-  <si>
     <t>models.OneToOneField(User,on_delete=models.CASCADE)</t>
   </si>
   <si>
@@ -507,64 +486,98 @@
         verbose_name_plural = 'ErrorLogs'</t>
   </si>
   <si>
+    <t>app_name</t>
+  </si>
+  <si>
+    <t>EventTracking</t>
+  </si>
+  <si>
     <t># apps.py
 from django.apps import AppConfig
 class YourAppConfig(AppConfig):
-    name = 'your_app'
+    name = 'EventTracking'
     def ready(self):
-        import your_app.signals</t>
-  </si>
-  <si>
-    <t>from django.db.models.signals import post_save, post_delete
-from django.dispatch import receiver
-from .models import Wishlist, CartActivity, UserFeedback, ErrorLog, UserPreference, ClickEvent, PageView, SearchQuery
+        import EventTracking.signals</t>
+  </si>
+  <si>
+    <t># For UserFeedback
+@receiver(post_save, sender=UserFeedback)
+def user_feedback_saved(sender, instance, created, **kwargs):
+    if created:
+        # Trigger review/response process
+        pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# For ErrorLog
+@receiver(post_save, sender=ErrorLog)
+def error_logged(sender, instance, created, **kwargs):
+    if created:
+        # Send alert to admin or trigger incident response
+        pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 # For Wishlist
 @receiver(post_save, sender=Wishlist)
 def wishlist_item_saved(sender, instance, created, **kwargs):
     if created:
         # Notify user about wishlist item, e.g., a sale or restock
-        pass
+        pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 # For CartActivity
 @receiver(post_save, sender=CartActivity)
 def cart_activity_saved(sender, instance, created, **kwargs):
     if created:
         # Update inventory or send cart abandonment reminders
-        pass
-# For UserFeedback
-@receiver(post_save, sender=UserFeedback)
-def user_feedback_saved(sender, instance, created, **kwargs):
-    if created:
-        # Trigger review/response process
-        pass
-# For ErrorLog
-@receiver(post_save, sender=ErrorLog)
-def error_logged(sender, instance, created, **kwargs):
-    if created:
-        # Send alert to admin or trigger incident response
-        pass
-# For UserPreference
-@receiver(post_save, sender=UserPreference)
-def user_preference_saved(sender, instance, created, **kwargs):
-    # Apply user preferences, like UI themes or content filters
-    pass
+        pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 # For ClickEvent
 @receiver(post_save, sender=ClickEvent)
 def click_event_saved(sender, instance, created, **kwargs):
     if created:
         # Log data for click analytics or real-time engagement
-        pass
+        pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 # For PageView
 @receiver(post_save, sender=PageView)
 def page_view_saved(sender, instance, created, **kwargs):
     if created:
         # Analytics tracking or cache updating
-        pass
+        pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 # For SearchQuery
 @receiver(post_save, sender=SearchQuery)
 def search_query_saved(sender, instance, created, **kwargs):
     if created:
         # Update search functionality or provide personalized results
         pass</t>
+  </si>
+  <si>
+    <t>from django.db.models.signals import post_save, post_delete
+from django.dispatch import receiver
+from .models import Wishlist, CartActivity, UserFeedback, ErrorLog, UserPreference, ClickEvent, PageView, SearchQuery
+@receiver(post_save, sender=UserPreference)
+def user_preference_saved(sender, instance, created, **kwargs):
+    # Apply user preferences, like UI themes or content filters
+    pass</t>
+  </si>
+  <si>
+    <t>Usersession</t>
+  </si>
+  <si>
+    <t>models.IntegerField()</t>
+  </si>
+  <si>
+    <t>from Product.models import Product</t>
   </si>
 </sst>
 </file>
@@ -941,907 +954,1626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView zoomScale="93" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="12" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
+    <col min="8" max="13" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="V2" s="2">
+        <v>1</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="X13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="V19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="V21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="V25" s="2">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1</v>
+      </c>
+      <c r="X30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="V33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="X36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="V38" s="2">
+        <v>1</v>
+      </c>
+      <c r="X38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+      <c r="X39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="V40" s="2">
+        <v>1</v>
+      </c>
+      <c r="X40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="X41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="X42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="Y33" s="2"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="Y34" s="2"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
       <c r="D44" t="s">
-        <v>92</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="E44" t="s">
+        <v>85</v>
+      </c>
       <c r="P44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="Y44" s="2"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Q44" s="2"/>
+      <c r="V44" s="2">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="V45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="V46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+      <c r="V48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O57" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V51" s="2">
+        <v>1</v>
+      </c>
+      <c r="X51" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
+      <c r="X52" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V53" s="2">
+        <v>1</v>
+      </c>
+      <c r="X53" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V54" s="2">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+      <c r="X55" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V56" s="2">
+        <v>1</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="P57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="Y57" s="2"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="O58" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="V57" s="2">
+        <v>1</v>
+      </c>
+      <c r="X57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="P58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="Y58" s="2"/>
-    </row>
-    <row r="67" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O67" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="V58" s="2">
+        <v>1</v>
+      </c>
+      <c r="X58" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V59" s="2">
+        <v>1</v>
+      </c>
+      <c r="X59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V60" s="2">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V61" s="2">
+        <v>1</v>
+      </c>
+      <c r="X61" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V62" s="2">
+        <v>1</v>
+      </c>
+      <c r="X62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V63" s="2">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
+      <c r="X64" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V65" s="2">
+        <v>1</v>
+      </c>
+      <c r="X65" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
+      <c r="X66" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="Y67" s="2"/>
-    </row>
-    <row r="68" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O68" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="V67" s="2">
+        <v>1</v>
+      </c>
+      <c r="X67" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="Y68" s="2"/>
-    </row>
-    <row r="76" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O76" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="V68" s="2">
+        <v>1</v>
+      </c>
+      <c r="X68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V69" s="2">
+        <v>1</v>
+      </c>
+      <c r="X69" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V70" s="2">
+        <v>1</v>
+      </c>
+      <c r="X70" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V71" s="2">
+        <v>1</v>
+      </c>
+      <c r="X71" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V72" s="2">
+        <v>1</v>
+      </c>
+      <c r="X72" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V73" s="2">
+        <v>1</v>
+      </c>
+      <c r="X73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V74" s="2">
+        <v>1</v>
+      </c>
+      <c r="X74" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="16:26" x14ac:dyDescent="0.2">
+      <c r="V75" s="2">
+        <v>1</v>
+      </c>
+      <c r="X75" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="15:25" x14ac:dyDescent="0.2">
-      <c r="O77" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="V76" s="2">
+        <v>1</v>
+      </c>
+      <c r="X76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="16:26" x14ac:dyDescent="0.2">
       <c r="P77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="Y77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="V77" s="2">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1851,18 +2583,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DE9946-B381-0247-B0AA-E67A7DD58800}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1872,18 +2609,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D736743-F982-B748-AF4D-941EEF6BA5FF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1893,53 +2635,30 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF3DF2-641B-5E44-AA75-D6FFD80FBD8B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1948,200 +2667,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0437A48-3006-3A4F-8E27-223B720E6D4E}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C23" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2151,25 +2939,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCD9D91-A652-1542-A6DA-92F93B426A5D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="48" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="306" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2179,20 +2976,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49074C45-7954-C740-835D-8F5D6F72327F}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2238,59 +3038,59 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Z4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AB4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -2311,13 +3111,13 @@
         <v>models.ForeignKey(UserSession,on_delete=models.CASCADE)</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Y5">
         <f>FIND("=",K5)</f>
@@ -2354,28 +3154,28 @@
         <v>models.TextField()#StorespreferencesasaJSONobject</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Q6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Y6">
         <f t="shared" ref="Y6:Y12" si="3">FIND("=",K6)</f>
@@ -2412,7 +3212,7 @@
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y7">
         <f t="shared" si="3"/>
@@ -2449,7 +3249,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="S8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="e">
         <f t="shared" si="3"/>
@@ -2486,7 +3286,7 @@
         <v>models.DateTimeField(auto_now_add=True)</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Y9">
         <f t="shared" si="3"/>
@@ -2557,25 +3357,25 @@
         <v>#VALUE!</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="P11" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="e">
         <f t="shared" si="3"/>
@@ -2612,10 +3412,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Y12" t="e">
         <f t="shared" si="3"/>
@@ -2693,27 +3493,113 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC848DF8-2DCC-D442-88F0-8D70EA2B49CF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="122.33203125" customWidth="1"/>
+    <col min="3" max="3" width="122.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2724,28 +3610,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5521218A-41C1-6B4F-B61B-0156CB25180A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2755,26 +3658,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B5DCB6D-D252-554A-AA6D-EF7613AF9735}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2783,18 +3691,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCCD04C-73D9-ED48-83F8-2B0724B93DB6}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/CRUDCreateCode/data/input/models/EventTracking.xlsx
+++ b/CRUDCreateCode/data/input/models/EventTracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CF41F1-221B-3645-BDFE-844591EB62BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C2338E-7905-BB46-B2D8-3F82AB48C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" activeTab="6" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
   <dimension ref="A1:Z77"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3612,7 +3612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5521218A-41C1-6B4F-B61B-0156CB25180A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/CRUDCreateCode/data/input/models/EventTracking.xlsx
+++ b/CRUDCreateCode/data/input/models/EventTracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tkax/dev/aimonetize/Backend/DjangoBasic/CRUDCreateCode/data/input/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C2338E-7905-BB46-B2D8-3F82AB48C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF9800-2A7E-094A-BA6C-2004614FC82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28000" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
+    <workbookView xWindow="40640" yWindow="1300" windowWidth="28000" windowHeight="18880" xr2:uid="{43DD2820-FE61-F645-B31F-194723807C3A}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="html" sheetId="5" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$Z$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">model!$B$1:$AB$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="181">
   <si>
     <t>Variable</t>
   </si>
@@ -578,6 +578,93 @@
   </si>
   <si>
     <t>from Product.models import Product</t>
+  </si>
+  <si>
+    <t>faker_function</t>
+  </si>
+  <si>
+    <t>faker_type</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>str(uuid.uuid4())</t>
+  </si>
+  <si>
+    <t>StartTimeProvider()</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>EndTimeProvider()</t>
+  </si>
+  <si>
+    <t>ipv4()</t>
+  </si>
+  <si>
+    <t>EventTypeProvider()</t>
+  </si>
+  <si>
+    <t>EventTimeProvider()</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>UserDeviceTimeProvider()</t>
+  </si>
+  <si>
+    <t>PageViewUriProvider()</t>
+  </si>
+  <si>
+    <t>PageViewTimeProvider()</t>
+  </si>
+  <si>
+    <t>ActivityTypeProvider()</t>
+  </si>
+  <si>
+    <t>Dynamic_Product()</t>
+  </si>
+  <si>
+    <t>random.randint(1, 3)</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>CartActivityTimeProvider()</t>
+  </si>
+  <si>
+    <t>SearchQueryTimeProvider()</t>
+  </si>
+  <si>
+    <t>WishlistTimeProvider()</t>
+  </si>
+  <si>
+    <t>UserFeedbackTimeProvider()</t>
+  </si>
+  <si>
+    <t>UserFeedbackProvider()</t>
+  </si>
+  <si>
+    <t>ErrorLogTimeProvider()</t>
+  </si>
+  <si>
+    <t>char]</t>
+  </si>
+  <si>
+    <t>ClickEventElementId()</t>
+  </si>
+  <si>
+    <t>Dynamic_UserSession()</t>
+  </si>
+  <si>
+    <t>Dynamic_User()</t>
+  </si>
+  <si>
+    <t>CustomDeviceProvider()</t>
   </si>
 </sst>
 </file>
@@ -954,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15A4BF7-DFDE-D24F-85FE-657339D228CC}">
-  <dimension ref="A1:Z77"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="93" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,13 +1052,13 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" customWidth="1"/>
-    <col min="7" max="7" width="40.33203125" customWidth="1"/>
-    <col min="8" max="13" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="8" width="32.1640625" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="15" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -991,67 +1078,73 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
@@ -1068,18 +1161,24 @@
         <v>71</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="V2" s="2">
-        <v>1</v>
-      </c>
-      <c r="W2" s="2"/>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="X2" s="2">
         <v>1</v>
       </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -1095,18 +1194,24 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" s="2"/>
       <c r="X3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -1122,19 +1227,25 @@
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="V4" s="2">
-        <v>1</v>
-      </c>
+      <c r="G4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
       <c r="X4" s="2">
         <v>1</v>
       </c>
       <c r="Z4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1150,8 +1261,11 @@
       <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="V5" s="2">
-        <v>1</v>
+      <c r="G5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
       </c>
       <c r="X5" s="2">
         <v>1</v>
@@ -1159,8 +1273,11 @@
       <c r="Z5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -1176,8 +1293,11 @@
       <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="2">
-        <v>1</v>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
@@ -1185,8 +1305,11 @@
       <c r="Z6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>139</v>
       </c>
@@ -1205,8 +1328,11 @@
       <c r="F7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>139</v>
       </c>
@@ -1222,18 +1348,24 @@
       <c r="E8" t="s">
         <v>85</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="V8" s="2">
-        <v>1</v>
-      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="X8" s="2">
         <v>1</v>
       </c>
       <c r="Z8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -1249,19 +1381,25 @@
       <c r="E9" t="s">
         <v>87</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="V9" s="2">
-        <v>1</v>
-      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
       <c r="X9" s="2">
         <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -1277,19 +1415,25 @@
       <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="V10" s="2">
-        <v>1</v>
-      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" t="s">
+        <v>157</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
       <c r="X10" s="2">
         <v>1</v>
       </c>
       <c r="Z10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>139</v>
       </c>
@@ -1305,18 +1449,21 @@
       <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="V11" s="2">
-        <v>1</v>
-      </c>
+      <c r="H11" t="s">
+        <v>162</v>
+      </c>
+      <c r="U11" s="2"/>
       <c r="X11" s="2">
         <v>1</v>
       </c>
       <c r="Z11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -1335,8 +1482,11 @@
       <c r="F12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -1352,8 +1502,11 @@
       <c r="E13" t="s">
         <v>85</v>
       </c>
-      <c r="V13" s="2">
-        <v>1</v>
+      <c r="G13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" t="s">
+        <v>154</v>
       </c>
       <c r="X13" s="2">
         <v>1</v>
@@ -1361,8 +1514,11 @@
       <c r="Z13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -1378,18 +1534,24 @@
       <c r="E14" t="s">
         <v>95</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="V14" s="2">
-        <v>1</v>
-      </c>
+      <c r="G14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" t="s">
+        <v>154</v>
+      </c>
+      <c r="V14" s="2"/>
       <c r="X14" s="2">
         <v>1</v>
       </c>
       <c r="Z14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -1405,8 +1567,11 @@
       <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="2">
-        <v>1</v>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>157</v>
       </c>
       <c r="X15" s="2">
         <v>1</v>
@@ -1414,8 +1579,11 @@
       <c r="Z15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -1434,8 +1602,11 @@
       <c r="F16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -1451,8 +1622,11 @@
       <c r="E17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" s="2">
-        <v>1</v>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
       </c>
       <c r="X17" s="2">
         <v>1</v>
@@ -1460,8 +1634,11 @@
       <c r="Z17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -1477,8 +1654,11 @@
       <c r="E18" t="s">
         <v>97</v>
       </c>
-      <c r="V18" s="2">
-        <v>1</v>
+      <c r="G18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" t="s">
+        <v>154</v>
       </c>
       <c r="X18" s="2">
         <v>1</v>
@@ -1486,8 +1666,11 @@
       <c r="Z18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>139</v>
       </c>
@@ -1503,19 +1686,25 @@
       <c r="E19" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="V19" s="2">
-        <v>1</v>
-      </c>
+      <c r="G19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" t="s">
+        <v>157</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
       <c r="X19" s="2">
         <v>1</v>
       </c>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -1534,8 +1723,11 @@
       <c r="F20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -1551,19 +1743,25 @@
       <c r="E21" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="V21" s="2">
-        <v>1</v>
-      </c>
+      <c r="G21" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
       <c r="X21" s="2">
         <v>1</v>
       </c>
       <c r="Z21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -1579,8 +1777,11 @@
       <c r="E22" t="s">
         <v>101</v>
       </c>
-      <c r="V22" s="2">
-        <v>1</v>
+      <c r="G22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
+        <v>176</v>
       </c>
       <c r="X22" s="2">
         <v>1</v>
@@ -1588,8 +1789,11 @@
       <c r="Z22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -1605,17 +1809,17 @@
       <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="2">
-        <v>1</v>
-      </c>
       <c r="X23" s="2">
         <v>1</v>
       </c>
       <c r="Z23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -1634,8 +1838,11 @@
       <c r="F24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -1651,8 +1858,11 @@
       <c r="E25" t="s">
         <v>85</v>
       </c>
-      <c r="V25" s="2">
-        <v>1</v>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
       </c>
       <c r="X25" s="2">
         <v>1</v>
@@ -1660,8 +1870,11 @@
       <c r="Z25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -1677,8 +1890,8 @@
       <c r="E26" t="s">
         <v>104</v>
       </c>
-      <c r="V26" s="2">
-        <v>1</v>
+      <c r="H26" t="s">
+        <v>7</v>
       </c>
       <c r="X26" s="2">
         <v>1</v>
@@ -1686,8 +1899,11 @@
       <c r="Z26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -1703,8 +1919,11 @@
       <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="V27" s="2">
-        <v>1</v>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" t="s">
+        <v>157</v>
       </c>
       <c r="X27" s="2">
         <v>1</v>
@@ -1712,8 +1931,11 @@
       <c r="Z27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -1732,8 +1954,11 @@
       <c r="F28" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -1749,8 +1974,11 @@
       <c r="E29" t="s">
         <v>115</v>
       </c>
-      <c r="V29" s="2">
-        <v>1</v>
+      <c r="G29" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" t="s">
+        <v>154</v>
       </c>
       <c r="X29" s="2">
         <v>1</v>
@@ -1758,8 +1986,11 @@
       <c r="Z29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -1775,8 +2006,8 @@
       <c r="E30" t="s">
         <v>116</v>
       </c>
-      <c r="V30" s="2">
-        <v>1</v>
+      <c r="H30" t="s">
+        <v>7</v>
       </c>
       <c r="X30" s="2">
         <v>1</v>
@@ -1784,8 +2015,11 @@
       <c r="Z30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -1804,8 +2038,11 @@
       <c r="F31" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -1821,8 +2058,11 @@
       <c r="E32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="V32" s="2">
-        <v>1</v>
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" t="s">
+        <v>154</v>
       </c>
       <c r="X32" s="2">
         <v>1</v>
@@ -1830,8 +2070,11 @@
       <c r="Z32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -1847,19 +2090,25 @@
       <c r="E33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="V33" s="2">
-        <v>1</v>
-      </c>
+      <c r="G33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
       <c r="X33" s="2">
         <v>1</v>
       </c>
       <c r="Z33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -1875,19 +2124,25 @@
       <c r="E34" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="V34" s="2">
-        <v>1</v>
-      </c>
+      <c r="G34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
       <c r="X34" s="2">
         <v>1</v>
       </c>
       <c r="Z34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -1903,8 +2158,11 @@
       <c r="E35" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="V35" s="2">
-        <v>1</v>
+      <c r="G35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="X35" s="2">
         <v>1</v>
@@ -1912,8 +2170,11 @@
       <c r="Z35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>139</v>
       </c>
@@ -1929,8 +2190,11 @@
       <c r="E36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V36" s="2">
-        <v>1</v>
+      <c r="G36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="X36" s="2">
         <v>1</v>
@@ -1938,8 +2202,11 @@
       <c r="Z36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -1958,8 +2225,11 @@
       <c r="F37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>139</v>
       </c>
@@ -1975,8 +2245,11 @@
       <c r="E38" t="s">
         <v>118</v>
       </c>
-      <c r="V38" s="2">
-        <v>1</v>
+      <c r="G38" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" t="s">
+        <v>154</v>
       </c>
       <c r="X38" s="2">
         <v>1</v>
@@ -1984,8 +2257,11 @@
       <c r="Z38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -2001,8 +2277,11 @@
       <c r="E39" t="s">
         <v>119</v>
       </c>
-      <c r="V39" s="2">
-        <v>1</v>
+      <c r="G39" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" t="s">
+        <v>154</v>
       </c>
       <c r="X39" s="2">
         <v>1</v>
@@ -2010,8 +2289,11 @@
       <c r="Z39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -2027,8 +2309,11 @@
       <c r="E40" t="s">
         <v>28</v>
       </c>
-      <c r="V40" s="2">
-        <v>1</v>
+      <c r="G40" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" t="s">
+        <v>157</v>
       </c>
       <c r="X40" s="2">
         <v>1</v>
@@ -2036,8 +2321,11 @@
       <c r="Z40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>139</v>
       </c>
@@ -2053,11 +2341,14 @@
       <c r="E41" t="s">
         <v>28</v>
       </c>
-      <c r="X41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -2073,11 +2364,14 @@
       <c r="E42" t="s">
         <v>29</v>
       </c>
-      <c r="X42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -2096,8 +2390,11 @@
       <c r="F43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -2113,19 +2410,25 @@
       <c r="E44" t="s">
         <v>85</v>
       </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="V44" s="2">
-        <v>1</v>
-      </c>
+      <c r="G44" t="s">
+        <v>178</v>
+      </c>
+      <c r="H44" t="s">
+        <v>154</v>
+      </c>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
       <c r="X44" s="2">
         <v>1</v>
       </c>
       <c r="Z44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -2141,8 +2444,11 @@
       <c r="E45" t="s">
         <v>131</v>
       </c>
-      <c r="V45" s="2">
-        <v>1</v>
+      <c r="G45" t="s">
+        <v>174</v>
+      </c>
+      <c r="H45" t="s">
+        <v>154</v>
       </c>
       <c r="X45" s="2">
         <v>1</v>
@@ -2150,8 +2456,11 @@
       <c r="Z45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -2167,8 +2476,11 @@
       <c r="E46" t="s">
         <v>28</v>
       </c>
-      <c r="V46" s="2">
-        <v>1</v>
+      <c r="G46" t="s">
+        <v>173</v>
+      </c>
+      <c r="H46" t="s">
+        <v>157</v>
       </c>
       <c r="X46" s="2">
         <v>1</v>
@@ -2176,8 +2488,11 @@
       <c r="Z46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>139</v>
       </c>
@@ -2193,8 +2508,11 @@
       <c r="E47" t="s">
         <v>85</v>
       </c>
-      <c r="V47" s="2">
-        <v>1</v>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
       </c>
       <c r="X47" s="2">
         <v>1</v>
@@ -2202,8 +2520,11 @@
       <c r="Z47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2219,8 +2540,8 @@
       <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="V48" s="2">
-        <v>1</v>
+      <c r="H48" t="s">
+        <v>7</v>
       </c>
       <c r="X48" s="2">
         <v>1</v>
@@ -2228,8 +2549,11 @@
       <c r="Z48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AB48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>139</v>
       </c>
@@ -2245,8 +2569,11 @@
       <c r="E49" t="s">
         <v>28</v>
       </c>
-      <c r="V49" s="2">
-        <v>1</v>
+      <c r="G49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" t="s">
+        <v>157</v>
       </c>
       <c r="X49" s="2">
         <v>1</v>
@@ -2254,324 +2581,327 @@
       <c r="Z49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V50" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X50" s="2">
         <v>1</v>
       </c>
       <c r="Z50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V51" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X51" s="2">
         <v>1</v>
       </c>
       <c r="Z51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V52" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X52" s="2">
         <v>1</v>
       </c>
       <c r="Z52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V53" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X53" s="2">
         <v>1</v>
       </c>
       <c r="Z53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V54" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X54" s="2">
         <v>1</v>
       </c>
       <c r="Z54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V55" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X55" s="2">
         <v>1</v>
       </c>
       <c r="Z55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V56" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X56" s="2">
         <v>1</v>
       </c>
       <c r="Z56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="V57" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
       <c r="X57" s="2">
         <v>1</v>
       </c>
       <c r="Z57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="V58" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
       <c r="X58" s="2">
         <v>1</v>
       </c>
       <c r="Z58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V59" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X59" s="2">
         <v>1</v>
       </c>
       <c r="Z59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V60" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X60" s="2">
         <v>1</v>
       </c>
       <c r="Z60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V61" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X61" s="2">
         <v>1</v>
       </c>
       <c r="Z61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V62" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X62" s="2">
         <v>1</v>
       </c>
       <c r="Z62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V63" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X63" s="2">
         <v>1</v>
       </c>
       <c r="Z63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="V64" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X64" s="2">
         <v>1</v>
       </c>
       <c r="Z64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V65" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X65" s="2">
         <v>1</v>
       </c>
       <c r="Z65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V66" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X66" s="2">
         <v>1</v>
       </c>
       <c r="Z66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="V67" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
       <c r="X67" s="2">
         <v>1</v>
       </c>
       <c r="Z67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="V68" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
       <c r="X68" s="2">
         <v>1</v>
       </c>
       <c r="Z68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V69" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X69" s="2">
         <v>1</v>
       </c>
       <c r="Z69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V70" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X70" s="2">
         <v>1</v>
       </c>
       <c r="Z70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V71" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X71" s="2">
         <v>1</v>
       </c>
       <c r="Z71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V72" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X72" s="2">
         <v>1</v>
       </c>
       <c r="Z72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V73" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X73" s="2">
         <v>1</v>
       </c>
       <c r="Z73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V74" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X74" s="2">
         <v>1</v>
       </c>
       <c r="Z74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="V75" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="18:28" x14ac:dyDescent="0.2">
       <c r="X75" s="2">
         <v>1</v>
       </c>
       <c r="Z75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="V76" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
       <c r="X76" s="2">
         <v>1</v>
       </c>
       <c r="Z76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="16:26" x14ac:dyDescent="0.2">
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="V77" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="18:28" x14ac:dyDescent="0.2">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
       <c r="X77" s="2">
         <v>1</v>
       </c>
       <c r="Z77" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB77" s="2">
         <v>1</v>
       </c>
     </row>
